--- a/tests/excelUploadSecion.xlsx
+++ b/tests/excelUploadSecion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
   <si>
     <t>serial</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Science B</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -377,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -401,10 +407,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -412,144 +418,463 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B15">
+      <c r="B42">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
         <v>8</v>
       </c>
     </row>
@@ -562,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
